--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Greeting</t>
   </si>
@@ -56,6 +56,33 @@
   </si>
   <si>
     <t xml:space="preserve">Text Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2</t>
   </si>
 </sst>
 </file>
@@ -262,10 +289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,6 +362,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
